--- a/Zeta_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
+++ b/Zeta_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584AFC9C-AA75-D645-84DE-6C3AC1C21B0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C67A3-6D0D-4D4A-9A3F-27EDC25A0C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7420" yWindow="2820" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
+    <workbookView xWindow="11440" yWindow="680" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
   <sheets>
     <sheet name="NP 1" sheetId="1" r:id="rId1"/>
@@ -81,23 +81,35 @@
     <t>Stdev</t>
   </si>
   <si>
-    <t>serum</t>
+    <t>N/P ratio</t>
   </si>
   <si>
-    <t>pDNA+serum</t>
+    <t>pDNA+
+H₂O</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -108,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -116,13 +128,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1965,264 +2002,319 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33F51EBA-CA73-0345-A471-83384A2CE02F}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>-45</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>-46</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-33.300000000000004</v>
+      </c>
+      <c r="D3">
+        <v>0.26280537792569397</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>-33.300000000000004</v>
+      <c r="B4" s="4">
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>0.26280537792569397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-24.4866666666667</v>
+      </c>
+      <c r="D4">
+        <v>1.5545703229152699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="C5">
+        <v>-19.853333333333332</v>
+      </c>
+      <c r="D5">
+        <v>2.5390330617951653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>-21.78</v>
+      </c>
+      <c r="D6">
+        <v>0.1512172829628507</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>-34.659999999999997</v>
       </c>
-      <c r="C5">
+      <c r="D7">
         <v>0.59436240347675673</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>-28.53</v>
-      </c>
-      <c r="C6">
-        <v>2.7167750489627709</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="5">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>-28.150000000000002</v>
-      </c>
-      <c r="C7">
-        <v>2.0909487479770199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-31.353333333333335</v>
-      </c>
       <c r="C8">
-        <v>0.57702301128772637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-32.54</v>
+      </c>
+      <c r="D8">
+        <v>1.7439227811651148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-24.4866666666667</v>
+        <v>3</v>
+      </c>
+      <c r="B9" s="5">
+        <v>7.5</v>
       </c>
       <c r="C9">
-        <v>1.5545703229152699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-27.593333333333334</v>
+      </c>
+      <c r="D9">
+        <v>0.89466318926298904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>-32.54</v>
+      <c r="B10" s="5">
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1.7439227811651148</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <v>-27.816666666666666</v>
+      </c>
+      <c r="D10">
+        <v>3.225381975656358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>-28.53</v>
+      </c>
+      <c r="D11">
+        <v>2.7167750489627709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>-32.643333333333338</v>
       </c>
-      <c r="C11">
+      <c r="D12">
         <v>1.569975229811676</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C13">
+        <v>-26.149999999999995</v>
+      </c>
+      <c r="D13">
+        <v>1.4236104336041757</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>-24.056666666666668</v>
+      </c>
+      <c r="D14">
+        <v>5.0125331808267335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B12">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>-28.150000000000002</v>
+      </c>
+      <c r="D15">
+        <v>2.0909487479770199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>5</v>
+      </c>
+      <c r="C16">
         <v>-25.416666666666668</v>
       </c>
-      <c r="C12">
+      <c r="D16">
         <v>3.4069765025442775</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>-25.180000000000003</v>
-      </c>
-      <c r="C13">
-        <v>3.7113070473890915</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-19.853333333333332</v>
-      </c>
-      <c r="C14">
-        <v>2.5390330617951653</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>-27.593333333333334</v>
-      </c>
-      <c r="C15">
-        <v>0.89466318926298904</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>-26.149999999999995</v>
-      </c>
-      <c r="C16">
-        <v>1.4236104336041757</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C17">
         <v>-28.386666666666667</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.7841773703555608</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>-18.846666666666668</v>
+      </c>
+      <c r="D18">
+        <v>4.2736427345090728</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>-31.353333333333335</v>
+      </c>
+      <c r="D19">
+        <v>0.57702301128772637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>-25.180000000000003</v>
+      </c>
+      <c r="D20">
+        <v>3.7113070473890915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>7.5</v>
+      </c>
+      <c r="C21">
         <v>-20.970000000000002</v>
       </c>
-      <c r="C18">
+      <c r="D21">
         <v>7.4833147735478819E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19">
-        <v>-21.78</v>
-      </c>
-      <c r="C19">
-        <v>0.1512172829628507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20">
-        <v>-27.816666666666666</v>
-      </c>
-      <c r="C20">
-        <v>3.225381975656358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21">
-        <v>-24.056666666666668</v>
-      </c>
-      <c r="C21">
-        <v>5.0125331808267335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22">
-        <v>-18.846666666666668</v>
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>4.2736427345090728</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23">
         <v>-15.780000000000001</v>
       </c>
-      <c r="C23">
+      <c r="D22">
         <v>1.6678728968359673</v>
       </c>
     </row>

--- a/Zeta_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
+++ b/Zeta_Plots/022324_DLSZeta_serum_gradientcopoly_NP1,5,7.5,10_pDNA50to10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Zeta_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6C67A3-6D0D-4D4A-9A3F-27EDC25A0C18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CFCA11-1552-BE49-BDD4-390BCFF9C4B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11440" yWindow="680" windowWidth="23260" windowHeight="12460" activeTab="4" xr2:uid="{A79C2818-BA8F-4D9F-83BF-5E9D73C64859}"/>
   </bookViews>
@@ -84,8 +84,7 @@
     <t>N/P ratio</t>
   </si>
   <si>
-    <t>pDNA+
-H₂O</t>
+    <t>pDNA</t>
   </si>
 </sst>
 </file>
@@ -2005,7 +2004,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2024,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
